--- a/calculate-date.xlsx
+++ b/calculate-date.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trantuan/Desktop/calculate-date/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD64654-D68F-A346-83E0-E81FDF2470A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96ECAB0-AD83-B747-B8E1-5508D092DA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27420" windowHeight="17040" xr2:uid="{57D795B9-FD88-8949-88AF-A9F415C8322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{57D795B9-FD88-8949-88AF-A9F415C8322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Tính khoảng thời gian giữa 2 ngày</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>DK tháng</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>DK ngày</t>
+  </si>
+  <si>
+    <t>Số ngày</t>
   </si>
   <si>
     <t>Khoảng thời gian</t>
@@ -43,7 +70,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,16 +81,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color rgb="FF000DFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,19 +182,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000DFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,41 +577,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCBA186-6A02-DE4A-801A-450836E1E2E1}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="86.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E1" t="s">
+    <row r="1" spans="2:24" ht="52" x14ac:dyDescent="0.6">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="2:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="2:24" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>36950</v>
+      </c>
+      <c r="C4" s="13">
+        <v>38046</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>E4&amp;" năm "&amp;F4&amp;" tháng "&amp;G4&amp;" ngày"</f>
+        <v>3 năm 0 tháng 1 ngày</v>
+      </c>
+      <c r="E4" s="12">
+        <f>IF(AND(K5=TRUE,K9=TRUE),YEAR(C4)-YEAR(B4),IF(AND(L5=TRUE,K9=TRUE),YEAR(C4)-YEAR(B4),YEAR(C4)-YEAR(B4)-1))</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="12">
+        <f>IF(AND(K5=TRUE,OR(L9=TRUE,K9=TRUE)),MONTH(C4)-MONTH(B4),IF(AND(L5=TRUE,OR(K9=TRUE,L9=TRUE)),MONTH(C4)-MONTH(B4),IF(AND(K5=TRUE,M9=TRUE),MONTH(C4)-MONTH(B4)-1,IF(AND(M5=TRUE,OR(K9=TRUE,L9=TRUE)),MONTH(C4)+12-MONTH(B4),IF(AND(M5=TRUE,M9=TRUE),MONTH(C4)+12-MONTH(B4)-1,IF(AND(L5=TRUE,M9=TRUE),11))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f>IF(OR(K9=TRUE,L9=TRUE),DAY(C4)-DAY(B4),DAY(C4)+HLOOKUP(MONTH(C4)-1,$K$13:$V$14,2,0)-DAY(B4))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4" t="b">
+        <f>MONTH(C4)&gt;MONTH(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <f>MONTH(C4)=MONTH(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <f>MONTH(C4)&lt;MONTH(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4" t="b">
+        <f>DAY(C4)&gt;DAY(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="b">
+        <f>DAY(C4)=DAY(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <f>DAY(C4)&lt;DAY(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>6</v>
+      </c>
+      <c r="R13" s="4">
+        <v>7</v>
+      </c>
+      <c r="S13" s="4">
+        <v>8</v>
+      </c>
+      <c r="T13" s="4">
+        <v>9</v>
+      </c>
+      <c r="U13" s="4">
+        <v>10</v>
+      </c>
+      <c r="V13" s="4">
+        <v>11</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4">
+        <v>31</v>
+      </c>
+      <c r="L14" s="4">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4">
+        <v>31</v>
+      </c>
+      <c r="O14" s="4">
+        <v>30</v>
+      </c>
+      <c r="P14" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>30</v>
+      </c>
+      <c r="R14" s="4">
+        <v>31</v>
+      </c>
+      <c r="S14" s="4">
+        <v>31</v>
+      </c>
+      <c r="T14" s="4">
+        <v>30</v>
+      </c>
+      <c r="U14" s="4">
+        <v>31</v>
+      </c>
+      <c r="V14" s="4">
+        <v>30</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K7:M7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>